--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/TENNESSEE_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/TENNESSEE_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1487"/>
+  <dimension ref="A1:D1481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C10">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C32">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C35">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C37">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C45">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C50">
@@ -1330,7 +1330,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C73">
@@ -1369,7 +1369,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C76">
@@ -1499,7 +1499,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C86">
@@ -1512,7 +1512,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C87">
@@ -1985,7 +1985,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C123">
@@ -2458,7 +2458,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C159">
@@ -2632,7 +2632,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C172">
@@ -2658,7 +2658,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2715,7 +2715,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C178">
@@ -2902,7 +2902,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C192">
@@ -2987,7 +2987,7 @@
         <v>16</v>
       </c>
       <c r="D198">
-        <v>0.0009887529353602769</v>
+        <v>0.0009887529353602767</v>
       </c>
     </row>
     <row r="199">
@@ -3058,7 +3058,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C204">
@@ -3110,7 +3110,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C208">
@@ -3188,7 +3188,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C214">
@@ -3201,7 +3201,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C215">
@@ -3292,13 +3292,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estado de México_x000D_
-</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C222">
@@ -3337,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C225">
@@ -3350,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C226">
@@ -3441,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C233">
@@ -3558,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C242">
@@ -3636,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C248">
@@ -3727,7 +3726,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C255">
@@ -3740,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C256">
@@ -3909,7 +3908,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C269">
@@ -4052,7 +4051,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C280">
@@ -4065,7 +4064,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C281">
@@ -4091,7 +4090,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C283">
@@ -4117,7 +4116,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C285">
@@ -4234,7 +4233,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C294">
@@ -4247,7 +4246,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C295">
@@ -4364,7 +4363,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C304">
@@ -4429,7 +4428,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C309">
@@ -4442,7 +4441,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C310">
@@ -4455,7 +4454,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C311">
@@ -4468,7 +4467,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C312">
@@ -4629,7 +4628,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C324">
@@ -4642,7 +4641,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C325">
@@ -4655,7 +4654,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C326">
@@ -4759,7 +4758,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C334">
@@ -4811,7 +4810,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C338">
@@ -4915,7 +4914,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C346">
@@ -4954,7 +4953,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C349">
@@ -4980,7 +4979,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C351">
@@ -5006,7 +5005,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C353">
@@ -5019,7 +5018,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C354">
@@ -5045,7 +5044,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C356">
@@ -5091,7 +5090,7 @@
         <v>16</v>
       </c>
       <c r="D359">
-        <v>0.0009887529353602769</v>
+        <v>0.0009887529353602767</v>
       </c>
     </row>
     <row r="360">
@@ -5110,7 +5109,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C361">
@@ -5143,7 +5142,7 @@
         <v>16</v>
       </c>
       <c r="D363">
-        <v>0.0009887529353602769</v>
+        <v>0.0009887529353602767</v>
       </c>
     </row>
     <row r="364">
@@ -5193,7 +5192,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C367">
@@ -5219,20 +5218,20 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C369">
         <v>157</v>
       </c>
       <c r="D369">
-        <v>0.009702138178222717</v>
+        <v>0.009702138178222715</v>
       </c>
     </row>
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C370">
@@ -5284,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C374">
@@ -5297,7 +5296,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C375">
@@ -5323,7 +5322,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C377">
@@ -5336,7 +5335,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C378">
@@ -5375,7 +5374,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C381">
@@ -5388,7 +5387,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C382">
@@ -5401,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C383">
@@ -5414,7 +5413,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C384">
@@ -5466,7 +5465,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C388">
@@ -5479,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C389">
@@ -5531,7 +5530,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C393">
@@ -5609,7 +5608,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C399">
@@ -5622,7 +5621,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C400">
@@ -5648,7 +5647,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C402">
@@ -5687,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C405">
@@ -5726,7 +5725,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C408">
@@ -5876,7 +5875,7 @@
         <v>16</v>
       </c>
       <c r="D419">
-        <v>0.0009887529353602769</v>
+        <v>0.0009887529353602767</v>
       </c>
     </row>
     <row r="420">
@@ -5895,7 +5894,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C421">
@@ -5921,7 +5920,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C423">
@@ -5941,13 +5940,13 @@
         <v>16</v>
       </c>
       <c r="D424">
-        <v>0.0009887529353602769</v>
+        <v>0.0009887529353602767</v>
       </c>
     </row>
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C425">
@@ -5973,7 +5972,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C427">
@@ -6025,7 +6024,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C431">
@@ -6173,7 +6172,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C442">
@@ -6225,7 +6224,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C446">
@@ -6238,7 +6237,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C447">
@@ -6316,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C453">
@@ -6381,7 +6380,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C458">
@@ -6407,7 +6406,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C460">
@@ -6446,7 +6445,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C463">
@@ -6537,7 +6536,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C470">
@@ -6550,7 +6549,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C471">
@@ -6563,7 +6562,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C472">
@@ -6576,7 +6575,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C473">
@@ -6602,7 +6601,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C475">
@@ -6615,7 +6614,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C476">
@@ -6628,7 +6627,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C477">
@@ -6667,7 +6666,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C480">
@@ -6745,7 +6744,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C486">
@@ -6758,7 +6757,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C487">
@@ -6810,7 +6809,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C491">
@@ -6836,7 +6835,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C493">
@@ -6849,7 +6848,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C494">
@@ -6862,7 +6861,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C495">
@@ -6966,7 +6965,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C503">
@@ -6979,7 +6978,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C504">
@@ -7018,7 +7017,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C507">
@@ -7075,7 +7074,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C511">
@@ -7088,7 +7087,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C512">
@@ -7140,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C516">
@@ -7166,7 +7165,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C518">
@@ -7179,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C519">
@@ -7231,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C523">
@@ -7283,7 +7282,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C527">
@@ -7374,7 +7373,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C534">
@@ -7439,7 +7438,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C539">
@@ -7452,7 +7451,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C540">
@@ -7504,7 +7503,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C544">
@@ -7556,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C548">
@@ -7569,14 +7568,14 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C549">
         <v>16</v>
       </c>
       <c r="D549">
-        <v>0.0009887529353602769</v>
+        <v>0.0009887529353602767</v>
       </c>
     </row>
     <row r="550">
@@ -7621,7 +7620,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C553">
@@ -7686,7 +7685,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C558">
@@ -7699,7 +7698,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C559">
@@ -7725,7 +7724,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C561">
@@ -7738,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C562">
@@ -7751,7 +7750,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C563">
@@ -7790,7 +7789,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C566">
@@ -7842,7 +7841,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C570">
@@ -7868,7 +7867,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C572">
@@ -7881,7 +7880,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C573">
@@ -7985,7 +7984,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C581">
@@ -7998,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C582">
@@ -8037,7 +8036,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C585">
@@ -8050,7 +8049,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C586">
@@ -8089,7 +8088,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C589">
@@ -8102,7 +8101,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C590">
@@ -9134,7 +9133,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C669">
@@ -9425,7 +9424,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C691">
@@ -9542,7 +9541,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C700">
@@ -9594,7 +9593,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C704">
@@ -9607,7 +9606,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C705">
@@ -9755,7 +9754,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C716">
@@ -9794,7 +9793,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C719">
@@ -9872,7 +9871,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C725">
@@ -9918,7 +9917,7 @@
         <v>16</v>
       </c>
       <c r="D728">
-        <v>0.0009887529353602769</v>
+        <v>0.0009887529353602767</v>
       </c>
     </row>
     <row r="729">
@@ -10020,7 +10019,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C736">
@@ -10163,7 +10162,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C747">
@@ -10228,7 +10227,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C752">
@@ -10311,7 +10310,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C758">
@@ -10389,7 +10388,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C764">
@@ -10428,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C767">
@@ -10454,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C769">
@@ -10467,7 +10466,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C770">
@@ -10480,7 +10479,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C771">
@@ -10493,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C772">
@@ -10519,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C774">
@@ -10532,7 +10531,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C775">
@@ -10623,7 +10622,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C782">
@@ -10636,7 +10635,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C783">
@@ -10662,7 +10661,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C785">
@@ -10688,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C787">
@@ -10714,7 +10713,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C789">
@@ -10727,7 +10726,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C790">
@@ -10740,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C791">
@@ -10766,7 +10765,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C793">
@@ -10779,7 +10778,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C794">
@@ -10935,7 +10934,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C806">
@@ -10961,7 +10960,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C808">
@@ -11065,7 +11064,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C816">
@@ -11312,7 +11311,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C835">
@@ -11624,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C859">
@@ -11676,7 +11675,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C863">
@@ -11806,7 +11805,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C873">
@@ -11845,7 +11844,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C876">
@@ -12027,7 +12026,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C890">
@@ -12040,7 +12039,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C891">
@@ -12339,7 +12338,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C914">
@@ -12560,7 +12559,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C931">
@@ -13080,7 +13079,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C971">
@@ -13210,7 +13209,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C981">
@@ -13223,7 +13222,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C982">
@@ -13236,7 +13235,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C983">
@@ -13249,7 +13248,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C984">
@@ -13262,7 +13261,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C985">
@@ -13275,7 +13274,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C986">
@@ -13288,7 +13287,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C987">
@@ -13314,7 +13313,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C989">
@@ -13327,7 +13326,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C990">
@@ -13340,7 +13339,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C991">
@@ -13366,7 +13365,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C993">
@@ -13379,7 +13378,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C994">
@@ -13405,7 +13404,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C996">
@@ -13605,7 +13604,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1011">
@@ -13761,7 +13760,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1023">
@@ -13904,7 +13903,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1034">
@@ -13930,7 +13929,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1036">
@@ -13995,7 +13994,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1041">
@@ -14086,7 +14085,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1048">
@@ -14229,7 +14228,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1059">
@@ -14242,7 +14241,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1060">
@@ -14320,7 +14319,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1066">
@@ -14398,7 +14397,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1072">
@@ -14437,7 +14436,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1075">
@@ -14450,7 +14449,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1076">
@@ -14463,7 +14462,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1077">
@@ -14476,7 +14475,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1078">
@@ -14515,7 +14514,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1081">
@@ -14658,7 +14657,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1092">
@@ -14806,7 +14805,7 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1103">
@@ -14832,7 +14831,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1105">
@@ -14910,7 +14909,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1111">
@@ -14923,7 +14922,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1112">
@@ -14949,7 +14948,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1114">
@@ -14988,7 +14987,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1117">
@@ -15117,7 +15116,7 @@
         <v>16</v>
       </c>
       <c r="D1126">
-        <v>0.0009887529353602769</v>
+        <v>0.0009887529353602767</v>
       </c>
     </row>
     <row r="1127">
@@ -15167,7 +15166,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1130">
@@ -15245,7 +15244,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1136">
@@ -15362,7 +15361,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1145">
@@ -15427,7 +15426,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1150">
@@ -15505,7 +15504,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1156">
@@ -15518,7 +15517,7 @@
     <row r="1157">
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1157">
@@ -15609,7 +15608,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1164">
@@ -15661,7 +15660,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1168">
@@ -15674,7 +15673,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1169">
@@ -15687,7 +15686,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1170">
@@ -15700,7 +15699,7 @@
     <row r="1171">
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1171">
@@ -15713,7 +15712,7 @@
     <row r="1172">
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1172">
@@ -15726,7 +15725,7 @@
     <row r="1173">
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1173">
@@ -16326,7 +16325,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1218">
@@ -16559,7 +16558,7 @@
         <v>16</v>
       </c>
       <c r="D1235">
-        <v>0.0009887529353602769</v>
+        <v>0.0009887529353602767</v>
       </c>
     </row>
     <row r="1236">
@@ -16760,7 +16759,7 @@
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1251">
@@ -16856,7 +16855,7 @@
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1258">
@@ -16869,7 +16868,7 @@
     <row r="1259">
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1259">
@@ -16921,7 +16920,7 @@
     <row r="1263">
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1263">
@@ -16960,7 +16959,7 @@
     <row r="1266">
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1266">
@@ -16973,7 +16972,7 @@
     <row r="1267">
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1267">
@@ -17012,7 +17011,7 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1270">
@@ -17038,7 +17037,7 @@
     <row r="1272">
       <c r="B1272" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1272">
@@ -17129,7 +17128,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1279">
@@ -17238,7 +17237,7 @@
     <row r="1287">
       <c r="B1287" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1287">
@@ -17277,7 +17276,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1290">
@@ -17368,7 +17367,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1297">
@@ -17394,7 +17393,7 @@
     <row r="1299">
       <c r="B1299" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1299">
@@ -17459,7 +17458,7 @@
     <row r="1304">
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1304">
@@ -17680,7 +17679,7 @@
     <row r="1321">
       <c r="B1321" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1321">
@@ -17888,7 +17887,7 @@
     <row r="1337">
       <c r="B1337" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1337">
@@ -17901,7 +17900,7 @@
     <row r="1338">
       <c r="B1338" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1338">
@@ -17914,7 +17913,7 @@
     <row r="1339">
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1339">
@@ -17953,7 +17952,7 @@
     <row r="1342">
       <c r="B1342" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1342">
@@ -17966,7 +17965,7 @@
     <row r="1343">
       <c r="B1343" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1343">
@@ -17979,7 +17978,7 @@
     <row r="1344">
       <c r="B1344" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1344">
@@ -18109,7 +18108,7 @@
     <row r="1354">
       <c r="B1354" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1354">
@@ -18161,7 +18160,7 @@
     <row r="1358">
       <c r="B1358" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1358">
@@ -18213,7 +18212,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1362">
@@ -18239,7 +18238,7 @@
     <row r="1364">
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1364">
@@ -18285,7 +18284,7 @@
         <v>16</v>
       </c>
       <c r="D1367">
-        <v>0.0009887529353602769</v>
+        <v>0.0009887529353602767</v>
       </c>
     </row>
     <row r="1368">
@@ -18304,7 +18303,7 @@
     <row r="1369">
       <c r="B1369" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1369">
@@ -18395,7 +18394,7 @@
     <row r="1376">
       <c r="B1376" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1376">
@@ -18447,7 +18446,7 @@
     <row r="1380">
       <c r="B1380" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1380">
@@ -18460,7 +18459,7 @@
     <row r="1381">
       <c r="B1381" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1381">
@@ -18512,7 +18511,7 @@
     <row r="1385">
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1385">
@@ -18584,7 +18583,7 @@
         <v>16</v>
       </c>
       <c r="D1390">
-        <v>0.0009887529353602769</v>
+        <v>0.0009887529353602767</v>
       </c>
     </row>
     <row r="1391">
@@ -18616,7 +18615,7 @@
     <row r="1393">
       <c r="B1393" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1393">
@@ -18655,7 +18654,7 @@
     <row r="1396">
       <c r="B1396" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1396">
@@ -19006,7 +19005,7 @@
     <row r="1423">
       <c r="B1423" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1423">
@@ -19110,7 +19109,7 @@
     <row r="1431">
       <c r="B1431" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1431">
@@ -19123,7 +19122,7 @@
     <row r="1432">
       <c r="B1432" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1432">
@@ -19250,7 +19249,7 @@
     <row r="1441">
       <c r="B1441" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1441">
@@ -19289,7 +19288,7 @@
     <row r="1444">
       <c r="B1444" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1444">
@@ -19406,7 +19405,7 @@
     <row r="1453">
       <c r="B1453" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1453">
@@ -19510,7 +19509,7 @@
     <row r="1461">
       <c r="B1461" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1461">
@@ -19523,7 +19522,7 @@
     <row r="1462">
       <c r="B1462" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1462">
@@ -19536,7 +19535,7 @@
     <row r="1463">
       <c r="B1463" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1463">
@@ -19556,7 +19555,7 @@
         <v>16</v>
       </c>
       <c r="D1464">
-        <v>0.0009887529353602769</v>
+        <v>0.0009887529353602767</v>
       </c>
     </row>
     <row r="1465">
@@ -19640,7 +19639,7 @@
     <row r="1471">
       <c r="B1471" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1471">
@@ -19653,7 +19652,7 @@
     <row r="1472">
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1472">
@@ -19692,7 +19691,7 @@
     <row r="1475">
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1475">
@@ -19778,41 +19777,6 @@
       </c>
       <c r="D1481">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1483">
-      <c r="A1483" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1484">
-      <c r="A1484" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1485">
-      <c r="A1485" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1487">
-      <c r="A1487" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
